--- a/app/uploads/testocr_extracted.xlsx
+++ b/app/uploads/testocr_extracted.xlsx
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>cy</t>
         </is>
       </c>
       <c r="C47" t="n">

--- a/app/uploads/testocr_extracted.xlsx
+++ b/app/uploads/testocr_extracted.xlsx
@@ -721,7 +721,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ro</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>lv</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cy</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>lv</t>
         </is>
       </c>
       <c r="C48" t="n">
